--- a/ifs-solver/src/main/resources/input/2020-Sem1-CAES-Wvl-no-extra-requests/Students.xlsx
+++ b/ifs-solver/src/main/resources/input/2020-Sem1-CAES-Wvl-no-extra-requests/Students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Documents\CS Honours\COMP700 - HP\student-lab-sectioning\ifs-solver\src\main\resources\input\2020-Sem1-CAES-Wvl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Documents\CS Honours\COMP700 - HP\student-lab-sectioning\ifs-solver\src\main\resources\input\2020-Sem1-CAES-Wvl-no-extra-requests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC33904A-7274-4BAF-9360-6A526BADA95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5509724-DECD-4654-B5DE-80538122097F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="60" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20766" uniqueCount="3492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20767" uniqueCount="3493">
   <si>
     <t>studentNumber</t>
   </si>
@@ -10510,6 +10510,9 @@
   </si>
   <si>
     <t>Chlo-Ann</t>
+  </si>
+  <si>
+    <t>BIOL222</t>
   </si>
 </sst>
 </file>
@@ -10832,8 +10835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="J313" sqref="J312:J313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20174,7 +20177,7 @@
       </c>
       <c r="G304" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H304" t="s">
         <v>3451</v>
@@ -20187,6 +20190,9 @@
       </c>
       <c r="K304" t="s">
         <v>3373</v>
+      </c>
+      <c r="L304" t="s">
+        <v>3492</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">

--- a/ifs-solver/src/main/resources/input/2020-Sem1-CAES-Wvl-no-extra-requests/Students.xlsx
+++ b/ifs-solver/src/main/resources/input/2020-Sem1-CAES-Wvl-no-extra-requests/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Documents\CS Honours\COMP700 - HP\student-lab-sectioning\ifs-solver\src\main\resources\input\2020-Sem1-CAES-Wvl-no-extra-requests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5509724-DECD-4654-B5DE-80538122097F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD7F6D-EF8D-4F43-A578-F08C5FD50381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="60" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20767" uniqueCount="3493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20766" uniqueCount="3492">
   <si>
     <t>studentNumber</t>
   </si>
@@ -10510,9 +10510,6 @@
   </si>
   <si>
     <t>Chlo-Ann</t>
-  </si>
-  <si>
-    <t>BIOL222</t>
   </si>
 </sst>
 </file>
@@ -10836,7 +10833,7 @@
   <dimension ref="A1:Q2548"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="J313" sqref="J312:J313"/>
+      <selection activeCell="K307" sqref="K307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20177,7 +20174,7 @@
       </c>
       <c r="G304" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H304" t="s">
         <v>3451</v>
@@ -20190,9 +20187,6 @@
       </c>
       <c r="K304" t="s">
         <v>3373</v>
-      </c>
-      <c r="L304" t="s">
-        <v>3492</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
